--- a/biology/Zoologie/Petit_Blongios/Petit_Blongios.xlsx
+++ b/biology/Zoologie/Petit_Blongios/Petit_Blongios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ixobrychus exilis
 Le Petit Blongios (Ixobrychus exilis) est une espèce d'oiseaux aquatiques appartenant à la famille des Ardeidae. C'est le plus petit héron que l'on peut trouver en Amérique du Nord et en Amérique du Sud.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ventre et la gorge de l'oiseau sont de couleur blanche avec des stries brun clair. La tête et le côté du cou sont brun clair. Les yeux sont jaunes. Le mâle adulte est noir vert brillant sur le dos et la couronne alors que la femelle adulte est brun brillant à ces endroits-là. En vol, les oiseaux montrent des parties brun clair sur les ailes.
 </t>
@@ -543,7 +557,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux nichent dans les marais très touffus et denses en végétation du Sud du Canada jusqu'au Nord de l'Argentine. Le nid est une plateforme construite à partir de brindilles et autre végétation trouvée dans le marais. La femelle pond 4 à 5 œufs. Les deux parents nourrissent les petits avec de la nourriture régurgitée. Deux couvées peuvent avoir lieu en une saison.
 </t>
@@ -574,7 +590,9 @@
           <t>Migration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces oiseaux migrent en hiver (de l'hémisphère nord) du Nord vers les côtes sud des États-Unis et parfois encore plus au Sud. Ils se déplacent la nuit.
 </t>
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils se nourrissent essentiellement de poissons et d'insectes qu'ils capturent par un mouvement rapide de leur bec tout en marchant entre les plantes du marais.
 </t>
@@ -662,11 +684,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils préfèrent fuir à patte tout en restant cachés que de prendre leur envol.
-Voix
-Ils émettent leur cris à la tombée de la nuit ou tôt le matin.
 </t>
         </is>
       </c>
@@ -692,10 +714,49 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Voix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils émettent leur cris à la tombée de la nuit ou tôt le matin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Petit_Blongios</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_Blongios</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre de ces oiseaux a diminué à certains endroits car leur habitat naturel a été détruit. Ils sont encore assez communs mais plus souvent entendus que vus.
 Le Petit Blongios est protégé par la Loi sur la convention concernant les oiseaux migrateurs.
